--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1744.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1744.xlsx
@@ -351,10 +351,10 @@
         <v>1.073321857006453</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.719179832805649</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1744.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1744.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.073321857006453</v>
+        <v>0.8815737962722778</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>0.7916948199272156</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.719179832805649</v>
+        <v>1.53313934803009</v>
       </c>
       <c r="E1">
-        <v>1.250612223363705</v>
+        <v>0.9393343925476074</v>
       </c>
     </row>
   </sheetData>
